--- a/exe/YesOrNo_Data/StreamingAssets/Data/Excels/Result.xlsx
+++ b/exe/YesOrNo_Data/StreamingAssets/Data/Excels/Result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Project\Assets\StreamingAssets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B970C1-94B6-4730-A2B5-DB97F5265DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C729D-5CEB-4765-9FB1-CC8E81FA8E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B0B3EF3-DB9F-40F6-9877-6443A91B0B74}"/>
   </bookViews>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B819A5-9F1E-45D2-BA3C-37ABB1FA1FBD}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>-20</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>-15</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/exe/YesOrNo_Data/StreamingAssets/Data/Excels/Result.xlsx
+++ b/exe/YesOrNo_Data/StreamingAssets/Data/Excels/Result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Project\Assets\StreamingAssets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitclone\YesOrNo\Assets\StreamingAssets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C729D-5CEB-4765-9FB1-CC8E81FA8E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FBA942-4F6C-4F88-B3BA-C28F4DAA062D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0B0B3EF3-DB9F-40F6-9877-6443A91B0B74}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +217,6 @@
     <t>bomb+weng</t>
   </si>
   <si>
-    <t>bomb3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bomb+weng+breath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我立刻挤进房间并死死关上了门。门外是状若疯癫的人群，辱骂我的冷血无情。我你默不作声，收好需要的物资，等待他们失去希望地离开。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我和同行者立刻挤进房间并死死关上了门。门外是状若疯癫的人群，辱骂我们的冷血无情。我默不作声，和同行者分配好需要的物资，等待门外的人失去希望地离开。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +370,34 @@
   </si>
   <si>
     <t>我出声制止，救援人员发现了那人的伪装，不再理他，去救另一位伤者。伤者对你轻声道谢谢，男人愤怒至极，向我袭来。我躲闪不及，重重撞上钢板。我们对峙着，等待下一波救援队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我立刻挤进房间并死死关上了门。门外是状若疯癫的人群，辱骂我的冷血无情。我默不作声，收好需要的物资，等待他们失去希望地离开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B819A5-9F1E-45D2-BA3C-37ABB1FA1FBD}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -802,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -814,10 +834,10 @@
         <v>39</v>
       </c>
       <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
         <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -831,10 +851,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -843,10 +863,10 @@
         <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -857,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -868,7 +888,7 @@
         <v>1001</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>40</v>
@@ -885,7 +905,7 @@
         <v>1002</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -899,7 +919,7 @@
         <v>2001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
@@ -913,7 +933,7 @@
         <v>2002</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="3">
         <v>-10</v>
@@ -930,10 +950,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>45</v>
@@ -956,7 +976,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="H9" s="1">
         <v>20</v>
@@ -976,13 +1002,13 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>43</v>
@@ -1002,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="H11" s="3">
         <v>-15</v>
@@ -1025,10 +1051,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3">
         <v>-15</v>
@@ -1045,10 +1074,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="3">
         <v>-20</v>
@@ -1068,7 +1097,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="3">
         <v>-20</v>
@@ -1085,10 +1114,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="3">
         <v>-20</v>
@@ -1105,7 +1134,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H16" s="1">
         <v>20</v>
@@ -1125,7 +1157,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1">
         <v>20</v>
@@ -1145,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>43</v>
@@ -1168,7 +1200,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>43</v>
@@ -1188,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>43</v>
@@ -1208,7 +1240,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>43</v>
@@ -1228,7 +1260,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>44</v>
@@ -1254,7 +1286,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>44</v>
@@ -1280,10 +1312,10 @@
         <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>40</v>
@@ -1306,10 +1338,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
@@ -1332,7 +1364,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>41</v>
@@ -1355,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>41</v>
@@ -1375,10 +1407,10 @@
         <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>42</v>
@@ -1401,10 +1433,10 @@
         <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="1">
         <v>10</v>
@@ -1424,7 +1456,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H30" s="1">
         <v>10</v>
@@ -1441,7 +1473,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H31" s="3">
         <v>-20</v>
@@ -1461,7 +1493,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H32" s="3">
         <v>-20</v>
